--- a/update.xlsx
+++ b/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>2020.1.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,12 +25,19 @@
     <t>发现可能会被loli传送到鳖身上的bug，已修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2020.1.21</t>
+  </si>
+  <si>
+    <t>1.对地图进行了更新，现在有了桌椅和某些人；                                       2.只要目标点没有障碍，就可以直接过去，这不是bug！这是一个feature！                3.加入碰撞系统（就是一句话）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +53,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -55,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -78,13 +92,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -93,6 +169,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,7 +488,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -403,14 +500,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1"/>
+    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
     <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1"/>
     <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1"/>
     <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1"/>
@@ -434,8 +545,9 @@
     <row r="25" ht="39.950000000000003" customHeight="1"/>
     <row r="26" ht="39.950000000000003" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/update.xlsx
+++ b/update.xlsx
@@ -1,55 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>2020.1.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发现可能会被loli传送到鳖身上的bug，已修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2020.1.21</t>
   </si>
   <si>
     <t>1.对地图进行了更新，现在有了桌椅和某些人；                                       2.只要目标点没有障碍，就可以直接过去，这不是bug！这是一个feature！                3.加入碰撞系统（就是一句话）；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.2.？</t>
+  </si>
+  <si>
+    <t>加入了交谈系统，目前只有shzr能正常交流，其他人的语录尚缺</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -57,19 +58,361 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="楷体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -79,26 +422,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -106,17 +449,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -126,7 +469,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -134,43 +477,263 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,18 +748,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,34 +1097,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="7" width="20.625" customWidth="1"/>
+    <col min="1" max="7" width="20.6272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1">
+    <row r="1" ht="39.95" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -514,71 +1132,86 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1">
+    <row r="3" ht="39.95" customHeight="1" spans="2:3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+    <row r="4" ht="39.95" customHeight="1" spans="2:3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1"/>
-    <row r="17" ht="39.950000000000003" customHeight="1"/>
-    <row r="18" ht="39.950000000000003" customHeight="1"/>
-    <row r="19" ht="39.950000000000003" customHeight="1"/>
-    <row r="20" ht="39.950000000000003" customHeight="1"/>
-    <row r="21" ht="39.950000000000003" customHeight="1"/>
-    <row r="22" ht="39.950000000000003" customHeight="1"/>
-    <row r="23" ht="39.950000000000003" customHeight="1"/>
-    <row r="24" ht="39.950000000000003" customHeight="1"/>
-    <row r="25" ht="39.950000000000003" customHeight="1"/>
-    <row r="26" ht="39.950000000000003" customHeight="1"/>
+    <row r="5" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" ht="39.95" customHeight="1"/>
+    <row r="7" ht="39.95" customHeight="1"/>
+    <row r="8" ht="39.95" customHeight="1"/>
+    <row r="9" ht="39.95" customHeight="1"/>
+    <row r="10" ht="39.95" customHeight="1"/>
+    <row r="11" ht="39.95" customHeight="1"/>
+    <row r="12" ht="39.95" customHeight="1"/>
+    <row r="13" ht="39.95" customHeight="1"/>
+    <row r="14" ht="39.95" customHeight="1"/>
+    <row r="15" ht="39.95" customHeight="1"/>
+    <row r="16" ht="39.95" customHeight="1"/>
+    <row r="17" ht="39.95" customHeight="1"/>
+    <row r="18" ht="39.95" customHeight="1"/>
+    <row r="19" ht="39.95" customHeight="1"/>
+    <row r="20" ht="39.95" customHeight="1"/>
+    <row r="21" ht="39.95" customHeight="1"/>
+    <row r="22" ht="39.95" customHeight="1"/>
+    <row r="23" ht="39.95" customHeight="1"/>
+    <row r="24" ht="39.95" customHeight="1"/>
+    <row r="25" ht="39.95" customHeight="1"/>
+    <row r="26" ht="39.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/update.xlsx
+++ b/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>2020.1.20</t>
   </si>
@@ -35,6 +35,12 @@
   <si>
     <t>加入了交谈系统，目前只有shzr能正常交流，其他人的语录尚缺</t>
   </si>
+  <si>
+    <t>2020.2.7</t>
+  </si>
+  <si>
+    <t>加入了zutter_的语录</t>
+  </si>
 </sst>
 </file>
 
@@ -42,11 +48,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,40 +68,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,6 +89,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -119,14 +111,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -134,30 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,9 +134,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,15 +143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,13 +154,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,6 +164,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,31 +220,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,145 +358,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +469,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -491,26 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -526,6 +508,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -549,181 +566,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,26 +726,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1106,7 +1093,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1121,35 +1108,43 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" ht="39.95" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" ht="39.95" customHeight="1" spans="2:3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" spans="2:3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" ht="39.95" customHeight="1" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
     </row>
-    <row r="6" ht="39.95" customHeight="1"/>
+    <row r="6" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
     <row r="7" ht="39.95" customHeight="1"/>
     <row r="8" ht="39.95" customHeight="1"/>
     <row r="9" ht="39.95" customHeight="1"/>
@@ -1171,9 +1166,10 @@
     <row r="25" ht="39.95" customHeight="1"/>
     <row r="26" ht="39.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/update.xlsx
+++ b/update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="14630" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>2020.1.20</t>
   </si>
@@ -41,6 +41,12 @@
   <si>
     <t>加入了zutter_的语录</t>
   </si>
+  <si>
+    <t>2020.2.10</t>
+  </si>
+  <si>
+    <t>在成爷的建议下，改掉了新版本下鳖的bug</t>
+  </si>
 </sst>
 </file>
 
@@ -81,6 +87,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -96,23 +117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +148,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,37 +216,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,181 +232,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +475,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -493,17 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,21 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1099,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1145,7 +1151,15 @@
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" ht="39.95" customHeight="1"/>
+    <row r="7" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
     <row r="8" ht="39.95" customHeight="1"/>
     <row r="9" ht="39.95" customHeight="1"/>
     <row r="10" ht="39.95" customHeight="1"/>
@@ -1166,10 +1180,11 @@
     <row r="25" ht="39.95" customHeight="1"/>
     <row r="26" ht="39.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/update.xlsx
+++ b/update.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>2020.1.20</t>
   </si>
@@ -47,15 +47,21 @@
   <si>
     <t>在成爷的建议下，改掉了新版本下鳖的bug</t>
   </si>
+  <si>
+    <t>2020.2.11</t>
+  </si>
+  <si>
+    <t>加入了成爷的语录，同时修复了一个把asuldb识别成鳖导致的bug（逃</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -74,13 +80,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,23 +110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,48 +132,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,8 +207,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,66 +232,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,115 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +520,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,35 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1160,7 +1166,15 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" ht="39.95" customHeight="1"/>
+    <row r="8" ht="39.95" customHeight="1" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
     <row r="9" ht="39.95" customHeight="1"/>
     <row r="10" ht="39.95" customHeight="1"/>
     <row r="11" ht="39.95" customHeight="1"/>
@@ -1180,11 +1194,12 @@
     <row r="25" ht="39.95" customHeight="1"/>
     <row r="26" ht="39.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
